--- a/example data/group/12 mm - Grand Standard Deviation Group Stepcycles.xlsx
+++ b/example data/group/12 mm - Grand Standard Deviation Group Stepcycles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:AZ26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,170 +451,245 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Nose x</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Nose y</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Ear base x</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Ear base y</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Front paw tao x</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Front paw tao y</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Wrist x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Wrist y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Elbow x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Elbow y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lower Shoulder x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Lower Shoulder y</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Upper Shoulder x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Upper Shoulder y</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Iliac Crest x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest y</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Hip x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Hip y</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Knee x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Knee y</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Ankle x</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Ankle y</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Hind paw tao x</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao y</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Tail base x</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Tail base y</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tail center x</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Tail center y</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Tail tip x</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Tail tip y</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Velocity</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Hind paw tao Acceleration</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Ankle Velocity</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Ankle Acceleration</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Knee Velocity</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Knee Acceleration</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Hip Velocity</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Hip Acceleration</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Velocity</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Iliac Crest Acceleration</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Velocity</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Ankle Angle Acceleration</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Velocity</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>Knee Angle Acceleration</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Velocity</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Hip Angle Acceleration</t>
         </is>
@@ -631,105 +706,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D2" t="n">
+        <v>44.42696739102421</v>
+      </c>
+      <c r="E2" t="n">
         <v>1.247499662146108</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>45.85923470442203</v>
+      </c>
+      <c r="G2" t="n">
         <v>0.7739382873544705</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>42.97809344909658</v>
+      </c>
+      <c r="I2" t="n">
         <v>0.2777586153835968</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>43.54355885057792</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.2653024014060493</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>45.48165927418454</v>
+      </c>
+      <c r="M2" t="n">
         <v>0.3913809455402571</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>45.49367765091338</v>
+      </c>
+      <c r="O2" t="n">
         <v>0.61829040741059</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
+        <v>45.32393685271807</v>
+      </c>
+      <c r="Q2" t="n">
         <v>0.9131774755677499</v>
       </c>
-      <c r="K2" t="n">
+      <c r="R2" t="n">
+        <v>44.30363915303703</v>
+      </c>
+      <c r="S2" t="n">
         <v>1.788767608144259</v>
       </c>
-      <c r="L2" t="n">
+      <c r="T2" t="n">
+        <v>43.87532611634645</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.191171263362362</v>
       </c>
-      <c r="M2" t="n">
+      <c r="V2" t="n">
+        <v>45.17438986453141</v>
+      </c>
+      <c r="W2" t="n">
         <v>0.8388341526510213</v>
       </c>
-      <c r="N2" t="n">
+      <c r="X2" t="n">
+        <v>46.0662235480798</v>
+      </c>
+      <c r="Y2" t="n">
         <v>1.355413926926265</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Z2" t="n">
+        <v>47.36149506196392</v>
+      </c>
+      <c r="AA2" t="n">
         <v>1.956039068947185</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AB2" t="n">
+        <v>44.29591671452859</v>
+      </c>
+      <c r="AC2" t="n">
         <v>3.001511933298688</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AD2" t="n">
+        <v>40.00524035311416</v>
+      </c>
+      <c r="AE2" t="n">
         <v>4.161795695731578</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AF2" t="n">
+        <v>25.58989962499908</v>
+      </c>
+      <c r="AG2" t="n">
         <v>3.91005575511119</v>
       </c>
-      <c r="S2" t="n">
+      <c r="AH2" t="n">
         <v>7.10781087763919</v>
       </c>
-      <c r="T2" t="n">
+      <c r="AI2" t="n">
         <v>11.1223663616679</v>
       </c>
-      <c r="U2" t="n">
+      <c r="AJ2" t="n">
         <v>12.74789858452488</v>
       </c>
-      <c r="V2" t="n">
+      <c r="AK2" t="n">
         <v>1.039881509971843</v>
       </c>
-      <c r="W2" t="n">
+      <c r="AL2" t="n">
         <v>0.7247634040693532</v>
       </c>
-      <c r="X2" t="n">
+      <c r="AM2" t="n">
         <v>0.9266794954933025</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="AN2" t="n">
         <v>0.3095837563584944</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AO2" t="n">
         <v>0.6856706482478102</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AP2" t="n">
         <v>0.1682587925704165</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AQ2" t="n">
         <v>0.501334789406731</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AR2" t="n">
         <v>0.2902052063892195</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AS2" t="n">
         <v>0.636629775927784</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AT2" t="n">
         <v>0.4692440423103458</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AU2" t="n">
         <v>3.872516121747287</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AV2" t="n">
         <v>1.753571890146422</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AW2" t="n">
         <v>6.606450442771822</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AX2" t="n">
         <v>4.529848615223256</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AY2" t="n">
         <v>4.090746807061569</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AZ2" t="n">
         <v>2.128005997111519</v>
       </c>
     </row>
@@ -744,105 +864,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D3" t="n">
+        <v>44.6186737838263</v>
+      </c>
+      <c r="E3" t="n">
         <v>1.366732406536816</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
+        <v>46.06748544743588</v>
+      </c>
+      <c r="G3" t="n">
         <v>0.7186484133697666</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>42.9633497557376</v>
+      </c>
+      <c r="I3" t="n">
         <v>0.2721994064166194</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>43.59788124952659</v>
+      </c>
+      <c r="K3" t="n">
         <v>0.2220603656245518</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>45.82493067434612</v>
+      </c>
+      <c r="M3" t="n">
         <v>0.5602330148479546</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>45.75717046554691</v>
+      </c>
+      <c r="O3" t="n">
         <v>0.6662978137526849</v>
       </c>
-      <c r="J3" t="n">
+      <c r="P3" t="n">
+        <v>45.74885740581051</v>
+      </c>
+      <c r="Q3" t="n">
         <v>1.008479899483722</v>
       </c>
-      <c r="K3" t="n">
+      <c r="R3" t="n">
+        <v>45.02634692033538</v>
+      </c>
+      <c r="S3" t="n">
         <v>1.415157605115985</v>
       </c>
-      <c r="L3" t="n">
+      <c r="T3" t="n">
+        <v>44.63294436409246</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.168974660816178</v>
       </c>
-      <c r="M3" t="n">
+      <c r="V3" t="n">
+        <v>46.46698187877189</v>
+      </c>
+      <c r="W3" t="n">
         <v>1.171083350292541</v>
       </c>
-      <c r="N3" t="n">
+      <c r="X3" t="n">
+        <v>46.76012276725994</v>
+      </c>
+      <c r="Y3" t="n">
         <v>2.241474151984854</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Z3" t="n">
+        <v>48.80572443345581</v>
+      </c>
+      <c r="AA3" t="n">
         <v>1.636157807586291</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AB3" t="n">
+        <v>44.81065117112659</v>
+      </c>
+      <c r="AC3" t="n">
         <v>2.815463643796138</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AD3" t="n">
+        <v>40.70843772880136</v>
+      </c>
+      <c r="AE3" t="n">
         <v>4.264974608818521</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AF3" t="n">
+        <v>26.32446743156007</v>
+      </c>
+      <c r="AG3" t="n">
         <v>4.718163487416724</v>
       </c>
-      <c r="S3" t="n">
+      <c r="AH3" t="n">
         <v>8.959459842013718</v>
       </c>
-      <c r="T3" t="n">
+      <c r="AI3" t="n">
         <v>12.56322052866627</v>
       </c>
-      <c r="U3" t="n">
+      <c r="AJ3" t="n">
         <v>18.14212232935373</v>
       </c>
-      <c r="V3" t="n">
+      <c r="AK3" t="n">
         <v>1.971036111350126</v>
       </c>
-      <c r="W3" t="n">
+      <c r="AL3" t="n">
         <v>0.4567942595273817</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AM3" t="n">
         <v>0.9650818272316949</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="AN3" t="n">
         <v>0.3604666725179468</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AO3" t="n">
         <v>0.9544045426582339</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AP3" t="n">
         <v>0.1833318112596328</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AQ3" t="n">
         <v>0.3435131785575261</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AR3" t="n">
         <v>0.1321985877939038</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AS3" t="n">
         <v>0.4020091276355709</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AT3" t="n">
         <v>0.2465207277405992</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AU3" t="n">
         <v>6.046795573741957</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AV3" t="n">
         <v>1.256991725326874</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AW3" t="n">
         <v>7.769687918437165</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AX3" t="n">
         <v>3.945055737976934</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AY3" t="n">
         <v>4.830882756365945</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AZ3" t="n">
         <v>1.419942511066714</v>
       </c>
     </row>
@@ -857,105 +1022,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D4" t="n">
+        <v>44.43333927599792</v>
+      </c>
+      <c r="E4" t="n">
         <v>1.805198395077545</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
+        <v>45.77439219462357</v>
+      </c>
+      <c r="G4" t="n">
         <v>0.7306027039397215</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>43.03243485345364</v>
+      </c>
+      <c r="I4" t="n">
         <v>0.1882591593680366</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>43.60048850931934</v>
+      </c>
+      <c r="K4" t="n">
         <v>0.2281329411283415</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>45.80686994911171</v>
+      </c>
+      <c r="M4" t="n">
         <v>0.5546660330358731</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>45.61780929367722</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.6959070531013312</v>
       </c>
-      <c r="J4" t="n">
+      <c r="P4" t="n">
+        <v>45.38231411523913</v>
+      </c>
+      <c r="Q4" t="n">
         <v>1.028803361532341</v>
       </c>
-      <c r="K4" t="n">
+      <c r="R4" t="n">
+        <v>45.2929123060735</v>
+      </c>
+      <c r="S4" t="n">
         <v>1.126897687317294</v>
       </c>
-      <c r="L4" t="n">
+      <c r="T4" t="n">
+        <v>44.88247874518513</v>
+      </c>
+      <c r="U4" t="n">
         <v>0.9906460811051365</v>
       </c>
-      <c r="M4" t="n">
+      <c r="V4" t="n">
+        <v>46.03248484438133</v>
+      </c>
+      <c r="W4" t="n">
         <v>0.9384608738094429</v>
       </c>
-      <c r="N4" t="n">
+      <c r="X4" t="n">
+        <v>46.19815159752375</v>
+      </c>
+      <c r="Y4" t="n">
         <v>3.300279334493078</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Z4" t="n">
+        <v>47.28566903126052</v>
+      </c>
+      <c r="AA4" t="n">
         <v>1.203323021036787</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AB4" t="n">
+        <v>44.75508559206641</v>
+      </c>
+      <c r="AC4" t="n">
         <v>2.670754741412021</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AD4" t="n">
+        <v>40.76551447117188</v>
+      </c>
+      <c r="AE4" t="n">
         <v>4.549543121521301</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AF4" t="n">
+        <v>34.16022585107633</v>
+      </c>
+      <c r="AG4" t="n">
         <v>6.242607682287382</v>
       </c>
-      <c r="S4" t="n">
+      <c r="AH4" t="n">
         <v>4.372150902841303</v>
       </c>
-      <c r="T4" t="n">
+      <c r="AI4" t="n">
         <v>4.97206561577179</v>
       </c>
-      <c r="U4" t="n">
+      <c r="AJ4" t="n">
         <v>14.37028653998984</v>
       </c>
-      <c r="V4" t="n">
+      <c r="AK4" t="n">
         <v>2.350326894808584</v>
       </c>
-      <c r="W4" t="n">
+      <c r="AL4" t="n">
         <v>0.40516106311875</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AM4" t="n">
         <v>1.230346925350132</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AN4" t="n">
         <v>0.3960423959469909</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AO4" t="n">
         <v>1.152082898926801</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AP4" t="n">
         <v>0.1568340515533368</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AQ4" t="n">
         <v>0.4949083518447475</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AR4" t="n">
         <v>0.2306989904809383</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AS4" t="n">
         <v>0.4116728581302962</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AT4" t="n">
         <v>0.3129138372929355</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AU4" t="n">
         <v>5.169412526898713</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AV4" t="n">
         <v>2.658979948826325</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AW4" t="n">
         <v>8.614326398310967</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AX4" t="n">
         <v>4.293998187905459</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AY4" t="n">
         <v>5.745547001133858</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AZ4" t="n">
         <v>1.094684356930248</v>
       </c>
     </row>
@@ -970,105 +1180,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D5" t="n">
+        <v>44.43910255692122</v>
+      </c>
+      <c r="E5" t="n">
         <v>2.260321105436543</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
+        <v>45.75771455192347</v>
+      </c>
+      <c r="G5" t="n">
         <v>0.8052477210356417</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>43.13605945430382</v>
+      </c>
+      <c r="I5" t="n">
         <v>0.1858167074388485</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>43.65001209868157</v>
+      </c>
+      <c r="K5" t="n">
         <v>0.317813990682232</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
+        <v>45.65501138349411</v>
+      </c>
+      <c r="M5" t="n">
         <v>0.5210594208338958</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>45.25692949661588</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.6058791545926142</v>
       </c>
-      <c r="J5" t="n">
+      <c r="P5" t="n">
+        <v>45.31464546725357</v>
+      </c>
+      <c r="Q5" t="n">
         <v>1.000047335633314</v>
       </c>
-      <c r="K5" t="n">
+      <c r="R5" t="n">
+        <v>45.36115094047901</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.8884883346819792</v>
       </c>
-      <c r="L5" t="n">
+      <c r="T5" t="n">
+        <v>45.00840797979132</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.181353146672159</v>
       </c>
-      <c r="M5" t="n">
+      <c r="V5" t="n">
+        <v>46.27477882489551</v>
+      </c>
+      <c r="W5" t="n">
         <v>0.8042378911680952</v>
       </c>
-      <c r="N5" t="n">
+      <c r="X5" t="n">
+        <v>46.75791837077021</v>
+      </c>
+      <c r="Y5" t="n">
         <v>4.667360113689304</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Z5" t="n">
+        <v>48.3086765031866</v>
+      </c>
+      <c r="AA5" t="n">
         <v>1.085712373815938</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AB5" t="n">
+        <v>45.09766032615142</v>
+      </c>
+      <c r="AC5" t="n">
         <v>2.606075867352152</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AD5" t="n">
+        <v>41.64043599199142</v>
+      </c>
+      <c r="AE5" t="n">
         <v>5.165400212149276</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AF5" t="n">
+        <v>36.1986024977005</v>
+      </c>
+      <c r="AG5" t="n">
         <v>7.281472733215606</v>
       </c>
-      <c r="S5" t="n">
+      <c r="AH5" t="n">
         <v>4.484570918903539</v>
       </c>
-      <c r="T5" t="n">
+      <c r="AI5" t="n">
         <v>9.01950646249632</v>
       </c>
-      <c r="U5" t="n">
+      <c r="AJ5" t="n">
         <v>14.20896918334828</v>
       </c>
-      <c r="V5" t="n">
+      <c r="AK5" t="n">
         <v>2.204566079108591</v>
       </c>
-      <c r="W5" t="n">
+      <c r="AL5" t="n">
         <v>0.2147697593796559</v>
       </c>
-      <c r="X5" t="n">
+      <c r="AM5" t="n">
         <v>1.219810629590063</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="AN5" t="n">
         <v>0.2862319622522901</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AO5" t="n">
         <v>1.221975156443908</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
         <v>0.1683483080264371</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AQ5" t="n">
         <v>0.5674595187480471</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AR5" t="n">
         <v>0.1321464443866202</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AS5" t="n">
         <v>0.6251192473041217</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AT5" t="n">
         <v>0.290072626311113</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AU5" t="n">
         <v>6.780117125105201</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AV5" t="n">
         <v>2.532964485693431</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AW5" t="n">
         <v>9.08648818683713</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AX5" t="n">
         <v>4.029575813425746</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AY5" t="n">
         <v>6.789478198906401</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AZ5" t="n">
         <v>1.555412348010538</v>
       </c>
     </row>
@@ -1083,105 +1338,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D6" t="n">
+        <v>43.80444492650147</v>
+      </c>
+      <c r="E6" t="n">
         <v>2.399982905992163</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
+        <v>45.11455598433602</v>
+      </c>
+      <c r="G6" t="n">
         <v>0.9652840050684395</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>43.20498930418675</v>
+      </c>
+      <c r="I6" t="n">
         <v>0.3672664242119754</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>43.65453294957726</v>
+      </c>
+      <c r="K6" t="n">
         <v>0.4467476696172081</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>44.90934696565872</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.6203809049518727</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>44.81422916987402</v>
+      </c>
+      <c r="O6" t="n">
         <v>0.5516170895603563</v>
       </c>
-      <c r="J6" t="n">
+      <c r="P6" t="n">
+        <v>44.64112264488444</v>
+      </c>
+      <c r="Q6" t="n">
         <v>1.055598407818392</v>
       </c>
-      <c r="K6" t="n">
+      <c r="R6" t="n">
+        <v>44.9478069191072</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.10103904177048</v>
       </c>
-      <c r="L6" t="n">
+      <c r="T6" t="n">
+        <v>45.11320098283019</v>
+      </c>
+      <c r="U6" t="n">
         <v>1.064860355160333</v>
       </c>
-      <c r="M6" t="n">
+      <c r="V6" t="n">
+        <v>45.8373685219509</v>
+      </c>
+      <c r="W6" t="n">
         <v>0.8736090069592362</v>
       </c>
-      <c r="N6" t="n">
+      <c r="X6" t="n">
+        <v>46.10113944021674</v>
+      </c>
+      <c r="Y6" t="n">
         <v>4.556968402833359</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Z6" t="n">
+        <v>47.20932016128241</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0.5053791593668777</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AB6" t="n">
+        <v>44.72538913013744</v>
+      </c>
+      <c r="AC6" t="n">
         <v>2.617303534003665</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AD6" t="n">
+        <v>41.75070894461856</v>
+      </c>
+      <c r="AE6" t="n">
         <v>5.647242096298193</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AF6" t="n">
+        <v>38.80839800953541</v>
+      </c>
+      <c r="AG6" t="n">
         <v>6.237654628173292</v>
       </c>
-      <c r="S6" t="n">
+      <c r="AH6" t="n">
         <v>5.386951968361414</v>
       </c>
-      <c r="T6" t="n">
+      <c r="AI6" t="n">
         <v>16.42945756928418</v>
       </c>
-      <c r="U6" t="n">
+      <c r="AJ6" t="n">
         <v>7.498663374796164</v>
       </c>
-      <c r="V6" t="n">
+      <c r="AK6" t="n">
         <v>2.108666942922417</v>
       </c>
-      <c r="W6" t="n">
+      <c r="AL6" t="n">
         <v>0.3076351563949346</v>
       </c>
-      <c r="X6" t="n">
+      <c r="AM6" t="n">
         <v>1.283222566733205</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="AN6" t="n">
         <v>0.1847367371596195</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AO6" t="n">
         <v>1.001802121240692</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AP6" t="n">
         <v>0.2079096861722196</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AQ6" t="n">
         <v>0.5482848349715485</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AR6" t="n">
         <v>0.1717922144131784</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AS6" t="n">
         <v>0.8143584868060655</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AT6" t="n">
         <v>0.08394496321592104</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AU6" t="n">
         <v>6.767436225501746</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AV6" t="n">
         <v>1.393818743236199</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AW6" t="n">
         <v>4.353150608652845</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AX6" t="n">
         <v>4.846355832334319</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AY6" t="n">
         <v>5.017120478141757</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AZ6" t="n">
         <v>2.528123704961535</v>
       </c>
     </row>
@@ -1196,105 +1496,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D7" t="n">
+        <v>43.62708481585938</v>
+      </c>
+      <c r="E7" t="n">
         <v>2.632405722263187</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
+        <v>44.90377095484875</v>
+      </c>
+      <c r="G7" t="n">
         <v>1.081616808026658</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>43.29203499072336</v>
+      </c>
+      <c r="I7" t="n">
         <v>0.359302278142583</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>43.31796817890272</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.7095369387171742</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>44.69372759230507</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.7348078331778646</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>44.7091002726876</v>
+      </c>
+      <c r="O7" t="n">
         <v>0.657666953615513</v>
       </c>
-      <c r="J7" t="n">
+      <c r="P7" t="n">
+        <v>44.5254916330808</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.118915010015824</v>
       </c>
-      <c r="K7" t="n">
+      <c r="R7" t="n">
+        <v>45.07156856404405</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.24730982368743</v>
       </c>
-      <c r="L7" t="n">
+      <c r="T7" t="n">
+        <v>45.47983522636907</v>
+      </c>
+      <c r="U7" t="n">
         <v>0.9505596522130548</v>
       </c>
-      <c r="M7" t="n">
+      <c r="V7" t="n">
+        <v>46.16790203860189</v>
+      </c>
+      <c r="W7" t="n">
         <v>1.334787933177149</v>
       </c>
-      <c r="N7" t="n">
+      <c r="X7" t="n">
+        <v>47.03159267854437</v>
+      </c>
+      <c r="Y7" t="n">
         <v>4.298405553073589</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Z7" t="n">
+        <v>48.19151812128849</v>
+      </c>
+      <c r="AA7" t="n">
         <v>0.4943974874318413</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AB7" t="n">
+        <v>44.92205660956464</v>
+      </c>
+      <c r="AC7" t="n">
         <v>2.710023188814776</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AD7" t="n">
+        <v>42.22579926904896</v>
+      </c>
+      <c r="AE7" t="n">
         <v>5.552315641801782</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AF7" t="n">
+        <v>38.26080236320342</v>
+      </c>
+      <c r="AG7" t="n">
         <v>11.18097792255603</v>
       </c>
-      <c r="S7" t="n">
+      <c r="AH7" t="n">
         <v>11.73543129878096</v>
       </c>
-      <c r="T7" t="n">
+      <c r="AI7" t="n">
         <v>18.84744386512711</v>
       </c>
-      <c r="U7" t="n">
+      <c r="AJ7" t="n">
         <v>6.343587834016573</v>
       </c>
-      <c r="V7" t="n">
+      <c r="AK7" t="n">
         <v>2.265254603677842</v>
       </c>
-      <c r="W7" t="n">
+      <c r="AL7" t="n">
         <v>0.2329439176377693</v>
       </c>
-      <c r="X7" t="n">
+      <c r="AM7" t="n">
         <v>0.6966556389255883</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AN7" t="n">
         <v>0.4639312092681357</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AO7" t="n">
         <v>0.9260384009285459</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AP7" t="n">
         <v>0.1455969656541363</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AQ7" t="n">
         <v>0.5619673045891012</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AR7" t="n">
         <v>0.1624785622539596</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AS7" t="n">
         <v>0.599813206698587</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AT7" t="n">
         <v>0.1226893439616441</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AU7" t="n">
         <v>6.448338277453721</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AV7" t="n">
         <v>3.265569638659582</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AW7" t="n">
         <v>1.045318514648824</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AX7" t="n">
         <v>3.819483688711096</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AY7" t="n">
         <v>3.838847827526289</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AZ7" t="n">
         <v>1.578379626157452</v>
       </c>
     </row>
@@ -1309,105 +1654,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D8" t="n">
+        <v>43.28652818946165</v>
+      </c>
+      <c r="E8" t="n">
         <v>3.031096981701478</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
+        <v>44.56584550886674</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.322942350154854</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>42.66619607187378</v>
+      </c>
+      <c r="I8" t="n">
         <v>0.4972822826828448</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>42.63098369200694</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.9000359887855026</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
+        <v>44.37574508332269</v>
+      </c>
+      <c r="M8" t="n">
         <v>0.8087934849757717</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
+        <v>44.18385540489282</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.6435555785523829</v>
       </c>
-      <c r="J8" t="n">
+      <c r="P8" t="n">
+        <v>44.08709156298052</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.12447652682948</v>
       </c>
-      <c r="K8" t="n">
+      <c r="R8" t="n">
+        <v>44.99543041425889</v>
+      </c>
+      <c r="S8" t="n">
         <v>1.567628749253488</v>
       </c>
-      <c r="L8" t="n">
+      <c r="T8" t="n">
+        <v>45.3138192497272</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.009896925899305</v>
       </c>
-      <c r="M8" t="n">
+      <c r="V8" t="n">
+        <v>45.85978562877818</v>
+      </c>
+      <c r="W8" t="n">
         <v>1.45885806524776</v>
       </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>47.09944171215772</v>
+      </c>
+      <c r="Y8" t="n">
         <v>3.127196005645937</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Z8" t="n">
+        <v>46.74271645146753</v>
+      </c>
+      <c r="AA8" t="n">
         <v>0.9906405527612511</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AB8" t="n">
+        <v>44.58586891271907</v>
+      </c>
+      <c r="AC8" t="n">
         <v>2.799552265018334</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AD8" t="n">
+        <v>42.00679734631148</v>
+      </c>
+      <c r="AE8" t="n">
         <v>5.246745255687833</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AF8" t="n">
+        <v>32.09027211022241</v>
+      </c>
+      <c r="AG8" t="n">
         <v>11.56112649279975</v>
       </c>
-      <c r="S8" t="n">
+      <c r="AH8" t="n">
         <v>16.13602530325378</v>
       </c>
-      <c r="T8" t="n">
+      <c r="AI8" t="n">
         <v>16.71681642305584</v>
       </c>
-      <c r="U8" t="n">
+      <c r="AJ8" t="n">
         <v>1.987734988341836</v>
       </c>
-      <c r="V8" t="n">
+      <c r="AK8" t="n">
         <v>2.708604574476907</v>
       </c>
-      <c r="W8" t="n">
+      <c r="AL8" t="n">
         <v>0.2485128625825036</v>
       </c>
-      <c r="X8" t="n">
+      <c r="AM8" t="n">
         <v>1.663568480676068</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="AN8" t="n">
         <v>0.6931145889529112</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AO8" t="n">
         <v>1.119669636288245</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AP8" t="n">
         <v>0.1277812703050717</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AQ8" t="n">
         <v>0.8732459791973248</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AR8" t="n">
         <v>0.2320531851777189</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AS8" t="n">
         <v>0.6759813421772252</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AT8" t="n">
         <v>0.1553876811276231</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AU8" t="n">
         <v>1.994184145473042</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AV8" t="n">
         <v>3.545584047576612</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AW8" t="n">
         <v>4.114596171102741</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AX8" t="n">
         <v>2.402715535387272</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AY8" t="n">
         <v>3.552810424886177</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AZ8" t="n">
         <v>1.975287125479504</v>
       </c>
     </row>
@@ -1422,105 +1812,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D9" t="n">
+        <v>43.15519442678827</v>
+      </c>
+      <c r="E9" t="n">
         <v>3.508058407902033</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
+        <v>44.36320555483812</v>
+      </c>
+      <c r="G9" t="n">
         <v>1.551513637743365</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>42.5293293614145</v>
+      </c>
+      <c r="I9" t="n">
         <v>0.7075093595548095</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>44.18883793002829</v>
+      </c>
+      <c r="K9" t="n">
         <v>1.168238534617819</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>44.63183571435346</v>
+      </c>
+      <c r="M9" t="n">
         <v>1.090103603414294</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>44.43244043152817</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.9172405716489467</v>
       </c>
-      <c r="J9" t="n">
+      <c r="P9" t="n">
+        <v>44.05168329302416</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1.185028622819812</v>
       </c>
-      <c r="K9" t="n">
+      <c r="R9" t="n">
+        <v>44.7019815790323</v>
+      </c>
+      <c r="S9" t="n">
         <v>1.864699606202734</v>
       </c>
-      <c r="L9" t="n">
+      <c r="T9" t="n">
+        <v>44.92640699933546</v>
+      </c>
+      <c r="U9" t="n">
         <v>1.25032025852329</v>
       </c>
-      <c r="M9" t="n">
+      <c r="V9" t="n">
+        <v>45.45403280969504</v>
+      </c>
+      <c r="W9" t="n">
         <v>1.350250661403534</v>
       </c>
-      <c r="N9" t="n">
+      <c r="X9" t="n">
+        <v>46.25080394023441</v>
+      </c>
+      <c r="Y9" t="n">
         <v>2.305217763841418</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Z9" t="n">
+        <v>45.62336789462162</v>
+      </c>
+      <c r="AA9" t="n">
         <v>1.110037053141569</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AB9" t="n">
+        <v>44.22733877014642</v>
+      </c>
+      <c r="AC9" t="n">
         <v>2.926779801593282</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AD9" t="n">
+        <v>41.78033065836545</v>
+      </c>
+      <c r="AE9" t="n">
         <v>4.885684143369496</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AF9" t="n">
+        <v>39.19804464102633</v>
+      </c>
+      <c r="AG9" t="n">
         <v>9.173771480364149</v>
       </c>
-      <c r="S9" t="n">
+      <c r="AH9" t="n">
         <v>14.87210341628855</v>
       </c>
-      <c r="T9" t="n">
+      <c r="AI9" t="n">
         <v>13.47544747263845</v>
       </c>
-      <c r="U9" t="n">
+      <c r="AJ9" t="n">
         <v>3.456057506494695</v>
       </c>
-      <c r="V9" t="n">
+      <c r="AK9" t="n">
         <v>2.694100942438757</v>
       </c>
-      <c r="W9" t="n">
+      <c r="AL9" t="n">
         <v>0.2726655241873842</v>
       </c>
-      <c r="X9" t="n">
+      <c r="AM9" t="n">
         <v>2.109561008395312</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="AN9" t="n">
         <v>0.3508385684521499</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AO9" t="n">
         <v>1.28675190419991</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AP9" t="n">
         <v>0.05768520890643475</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AQ9" t="n">
         <v>1.097684381303179</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AR9" t="n">
         <v>0.2181354645146558</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AS9" t="n">
         <v>0.9925115942106343</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AT9" t="n">
         <v>0.1982978302069192</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AU9" t="n">
         <v>1.568894263493777</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AV9" t="n">
         <v>2.38580130594879</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AW9" t="n">
         <v>5.354690131222448</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AX9" t="n">
         <v>1.345553581489084</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AY9" t="n">
         <v>2.520599567042107</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AZ9" t="n">
         <v>1.752654521755569</v>
       </c>
     </row>
@@ -1535,105 +1970,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D10" t="n">
+        <v>42.36112856710399</v>
+      </c>
+      <c r="E10" t="n">
         <v>3.733810738510373</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
+        <v>44.03404445858349</v>
+      </c>
+      <c r="G10" t="n">
         <v>1.918074267058731</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>46.47211959942351</v>
+      </c>
+      <c r="I10" t="n">
         <v>1.283182322768438</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>48.21276038913528</v>
+      </c>
+      <c r="K10" t="n">
         <v>1.379521540094133</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>44.00006477908452</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.348569596004974</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
+        <v>43.94919262806472</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.399881087363539</v>
       </c>
-      <c r="J10" t="n">
+      <c r="P10" t="n">
+        <v>43.59406788636794</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1.490349256924091</v>
       </c>
-      <c r="K10" t="n">
+      <c r="R10" t="n">
+        <v>43.77954269741069</v>
+      </c>
+      <c r="S10" t="n">
         <v>2.137031910108171</v>
       </c>
-      <c r="L10" t="n">
+      <c r="T10" t="n">
+        <v>43.81390382647386</v>
+      </c>
+      <c r="U10" t="n">
         <v>1.676865850593734</v>
       </c>
-      <c r="M10" t="n">
+      <c r="V10" t="n">
+        <v>44.32940487133868</v>
+      </c>
+      <c r="W10" t="n">
         <v>1.180194531034554</v>
       </c>
-      <c r="N10" t="n">
+      <c r="X10" t="n">
+        <v>44.38141063543859</v>
+      </c>
+      <c r="Y10" t="n">
         <v>1.583891754812443</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Z10" t="n">
+        <v>43.5611339715214</v>
+      </c>
+      <c r="AA10" t="n">
         <v>1.53310169867987</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AB10" t="n">
+        <v>43.18883519201461</v>
+      </c>
+      <c r="AC10" t="n">
         <v>3.438223386020162</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AD10" t="n">
+        <v>40.9799080896226</v>
+      </c>
+      <c r="AE10" t="n">
         <v>4.936470713805095</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AF10" t="n">
+        <v>38.33187945409284</v>
+      </c>
+      <c r="AG10" t="n">
         <v>8.53189392184037</v>
       </c>
-      <c r="S10" t="n">
+      <c r="AH10" t="n">
         <v>12.31399814041834</v>
       </c>
-      <c r="T10" t="n">
+      <c r="AI10" t="n">
         <v>8.677295238357214</v>
       </c>
-      <c r="U10" t="n">
+      <c r="AJ10" t="n">
         <v>4.476058656461989</v>
       </c>
-      <c r="V10" t="n">
+      <c r="AK10" t="n">
         <v>2.549465894585843</v>
       </c>
-      <c r="W10" t="n">
+      <c r="AL10" t="n">
         <v>0.3862364997219934</v>
       </c>
-      <c r="X10" t="n">
+      <c r="AM10" t="n">
         <v>2.459782877889698</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="AN10" t="n">
         <v>0.3905976101397157</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AO10" t="n">
         <v>1.422169780819207</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AP10" t="n">
         <v>0.2493105885626773</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AQ10" t="n">
         <v>1.349227130632428</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AR10" t="n">
         <v>0.26504941098065</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AS10" t="n">
         <v>1.108044805983012</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AT10" t="n">
         <v>0.3002033383532402</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AU10" t="n">
         <v>4.23088912299007</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AV10" t="n">
         <v>1.913175057989522</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AW10" t="n">
         <v>5.467966348973108</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AX10" t="n">
         <v>0.9307753844346062</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AY10" t="n">
         <v>1.093325169623718</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AZ10" t="n">
         <v>0.5641506904109813</v>
       </c>
     </row>
@@ -1648,105 +2128,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D11" t="n">
+        <v>41.38961210757893</v>
+      </c>
+      <c r="E11" t="n">
         <v>3.364646154816645</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
+        <v>43.18069562725243</v>
+      </c>
+      <c r="G11" t="n">
         <v>1.743080844253348</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>49.73297401936843</v>
+      </c>
+      <c r="I11" t="n">
         <v>1.883843364480231</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>49.20582991109178</v>
+      </c>
+      <c r="K11" t="n">
         <v>1.483781887992714</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
+        <v>44.22899239994276</v>
+      </c>
+      <c r="M11" t="n">
         <v>0.6781949510949712</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>43.60209938062511</v>
+      </c>
+      <c r="O11" t="n">
         <v>1.115712781087046</v>
       </c>
-      <c r="J11" t="n">
+      <c r="P11" t="n">
+        <v>42.84967792266877</v>
+      </c>
+      <c r="Q11" t="n">
         <v>1.275468083838222</v>
       </c>
-      <c r="K11" t="n">
+      <c r="R11" t="n">
+        <v>42.66556621530906</v>
+      </c>
+      <c r="S11" t="n">
         <v>2.414550978036496</v>
       </c>
-      <c r="L11" t="n">
+      <c r="T11" t="n">
+        <v>42.5558014700198</v>
+      </c>
+      <c r="U11" t="n">
         <v>2.130707629507189</v>
       </c>
-      <c r="M11" t="n">
+      <c r="V11" t="n">
+        <v>42.97565366941505</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.216311607803847</v>
       </c>
-      <c r="N11" t="n">
+      <c r="X11" t="n">
+        <v>42.53899927895807</v>
+      </c>
+      <c r="Y11" t="n">
         <v>1.313957017826995</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Z11" t="n">
+        <v>41.92050537261132</v>
+      </c>
+      <c r="AA11" t="n">
         <v>1.831098859031137</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AB11" t="n">
+        <v>42.21491831990321</v>
+      </c>
+      <c r="AC11" t="n">
         <v>4.105237634234412</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AD11" t="n">
+        <v>39.78768542691622</v>
+      </c>
+      <c r="AE11" t="n">
         <v>5.390947478743469</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AF11" t="n">
+        <v>37.3175374596327</v>
+      </c>
+      <c r="AG11" t="n">
         <v>8.303074020793414</v>
       </c>
-      <c r="S11" t="n">
+      <c r="AH11" t="n">
         <v>10.69172587985853</v>
       </c>
-      <c r="T11" t="n">
+      <c r="AI11" t="n">
         <v>6.626942825890965</v>
       </c>
-      <c r="U11" t="n">
+      <c r="AJ11" t="n">
         <v>6.157393368938002</v>
       </c>
-      <c r="V11" t="n">
+      <c r="AK11" t="n">
         <v>2.386319586308876</v>
       </c>
-      <c r="W11" t="n">
+      <c r="AL11" t="n">
         <v>0.5880979103110726</v>
       </c>
-      <c r="X11" t="n">
+      <c r="AM11" t="n">
         <v>2.551342671062695</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="AN11" t="n">
         <v>0.5050814892704969</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AO11" t="n">
         <v>1.538168838327807</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AP11" t="n">
         <v>0.2384038066560721</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AQ11" t="n">
         <v>1.348820965449271</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AR11" t="n">
         <v>0.1218414695056557</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AS11" t="n">
         <v>1.29922578272467</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AT11" t="n">
         <v>0.1707381958278676</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AU11" t="n">
         <v>5.815928727826694</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AV11" t="n">
         <v>3.07986605047945</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AW11" t="n">
         <v>4.8349278270104</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AX11" t="n">
         <v>1.300542415128922</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AY11" t="n">
         <v>1.651916270359414</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AZ11" t="n">
         <v>0.9234504987997866</v>
       </c>
     </row>
@@ -1761,105 +2286,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D12" t="n">
+        <v>40.15838112105099</v>
+      </c>
+      <c r="E12" t="n">
         <v>2.278544007223275</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
+        <v>42.57413812380145</v>
+      </c>
+      <c r="G12" t="n">
         <v>1.188209672620268</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>50.37075204042394</v>
+      </c>
+      <c r="I12" t="n">
         <v>1.825919731475947</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>49.67030962372124</v>
+      </c>
+      <c r="K12" t="n">
         <v>1.130994022825536</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>44.0688173443824</v>
+      </c>
+      <c r="M12" t="n">
         <v>0.5345423793660216</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>43.19401164826776</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.7301042052503302</v>
       </c>
-      <c r="J12" t="n">
+      <c r="P12" t="n">
+        <v>42.49674409394635</v>
+      </c>
+      <c r="Q12" t="n">
         <v>0.8899733218492034</v>
       </c>
-      <c r="K12" t="n">
+      <c r="R12" t="n">
+        <v>41.99213417387938</v>
+      </c>
+      <c r="S12" t="n">
         <v>2.319027355550748</v>
       </c>
-      <c r="L12" t="n">
+      <c r="T12" t="n">
+        <v>41.54916568688725</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.08539257625286</v>
       </c>
-      <c r="M12" t="n">
+      <c r="V12" t="n">
+        <v>41.88496417790707</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.151876784279242</v>
       </c>
-      <c r="N12" t="n">
+      <c r="X12" t="n">
+        <v>41.03236491016793</v>
+      </c>
+      <c r="Y12" t="n">
         <v>1.399645641869516</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Z12" t="n">
+        <v>40.66637127462194</v>
+      </c>
+      <c r="AA12" t="n">
         <v>1.60047368726958</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AB12" t="n">
+        <v>41.3869800385662</v>
+      </c>
+      <c r="AC12" t="n">
         <v>4.352854703858648</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AD12" t="n">
+        <v>38.96843748050134</v>
+      </c>
+      <c r="AE12" t="n">
         <v>6.00713865972351</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AF12" t="n">
+        <v>36.5901738804378</v>
+      </c>
+      <c r="AG12" t="n">
         <v>8.550747993956579</v>
       </c>
-      <c r="S12" t="n">
+      <c r="AH12" t="n">
         <v>6.87557182487082</v>
       </c>
-      <c r="T12" t="n">
+      <c r="AI12" t="n">
         <v>6.849444194459083</v>
       </c>
-      <c r="U12" t="n">
+      <c r="AJ12" t="n">
         <v>8.72759683711867</v>
       </c>
-      <c r="V12" t="n">
+      <c r="AK12" t="n">
         <v>2.108319057014807</v>
       </c>
-      <c r="W12" t="n">
+      <c r="AL12" t="n">
         <v>0.6118952449967726</v>
       </c>
-      <c r="X12" t="n">
+      <c r="AM12" t="n">
         <v>2.348834714080809</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="AN12" t="n">
         <v>0.5946327223883564</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AO12" t="n">
         <v>1.48543309559348</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AP12" t="n">
         <v>0.2274674202350107</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AQ12" t="n">
         <v>1.305550729000522</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AR12" t="n">
         <v>0.126941384090649</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AS12" t="n">
         <v>1.203006756862103</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AT12" t="n">
         <v>0.1066108618909383</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AU12" t="n">
         <v>7.323338525006393</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AV12" t="n">
         <v>1.681720834926007</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AW12" t="n">
         <v>3.568957265288845</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AX12" t="n">
         <v>1.947091070242586</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AY12" t="n">
         <v>2.743926223005825</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AZ12" t="n">
         <v>0.5020522395690052</v>
       </c>
     </row>
@@ -1874,105 +2444,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D13" t="n">
+        <v>39.63237724382164</v>
+      </c>
+      <c r="E13" t="n">
         <v>1.866644967330722</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
+        <v>41.98040998609048</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.646414306954849</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>50.31667566994179</v>
+      </c>
+      <c r="I13" t="n">
         <v>1.197265860406095</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>49.26358479446381</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.6153579053278997</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>43.83288880026391</v>
+      </c>
+      <c r="M13" t="n">
         <v>0.3028215359572622</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
+        <v>42.96516708416353</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.4455594302691224</v>
       </c>
-      <c r="J13" t="n">
+      <c r="P13" t="n">
+        <v>42.26589433262876</v>
+      </c>
+      <c r="Q13" t="n">
         <v>0.6665396145000141</v>
       </c>
-      <c r="K13" t="n">
+      <c r="R13" t="n">
+        <v>41.03312430044886</v>
+      </c>
+      <c r="S13" t="n">
         <v>2.454678317548694</v>
       </c>
-      <c r="L13" t="n">
+      <c r="T13" t="n">
+        <v>40.63164180633817</v>
+      </c>
+      <c r="U13" t="n">
         <v>2.191400052917556</v>
       </c>
-      <c r="M13" t="n">
+      <c r="V13" t="n">
+        <v>41.16467691877625</v>
+      </c>
+      <c r="W13" t="n">
         <v>1.550190410312676</v>
       </c>
-      <c r="N13" t="n">
+      <c r="X13" t="n">
+        <v>40.29557629935741</v>
+      </c>
+      <c r="Y13" t="n">
         <v>1.759912775142875</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Z13" t="n">
+        <v>39.9615486901405</v>
+      </c>
+      <c r="AA13" t="n">
         <v>1.4268071356426</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>40.59426341446324</v>
+      </c>
+      <c r="AC13" t="n">
         <v>4.642488447261789</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AD13" t="n">
+        <v>38.19889696028388</v>
+      </c>
+      <c r="AE13" t="n">
         <v>6.33910382963904</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AF13" t="n">
+        <v>35.85709523505226</v>
+      </c>
+      <c r="AG13" t="n">
         <v>8.863087695485433</v>
       </c>
-      <c r="S13" t="n">
+      <c r="AH13" t="n">
         <v>8.619123508820362</v>
       </c>
-      <c r="T13" t="n">
+      <c r="AI13" t="n">
         <v>7.52294485625782</v>
       </c>
-      <c r="U13" t="n">
+      <c r="AJ13" t="n">
         <v>10.62726474078222</v>
       </c>
-      <c r="V13" t="n">
+      <c r="AK13" t="n">
         <v>1.339438706158026</v>
       </c>
-      <c r="W13" t="n">
+      <c r="AL13" t="n">
         <v>0.821328417262454</v>
       </c>
-      <c r="X13" t="n">
+      <c r="AM13" t="n">
         <v>1.510962764423343</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="AN13" t="n">
         <v>0.9419730466596308</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AO13" t="n">
         <v>1.234075843650296</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AP13" t="n">
         <v>0.3642025878326282</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AQ13" t="n">
         <v>1.014134776191125</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AR13" t="n">
         <v>0.2469673462956924</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AS13" t="n">
         <v>1.117460245361939</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AT13" t="n">
         <v>0.3010333258740978</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AU13" t="n">
         <v>5.613563590331629</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AV13" t="n">
         <v>2.674287431261791</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AW13" t="n">
         <v>1.906825922691414</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AX13" t="n">
         <v>2.014951234690258</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AY13" t="n">
         <v>2.31668332424384</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AZ13" t="n">
         <v>1.136300464387583</v>
       </c>
     </row>
@@ -1987,105 +2602,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D14" t="n">
+        <v>38.55080563833819</v>
+      </c>
+      <c r="E14" t="n">
         <v>0.7699373096132757</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
+        <v>41.4227040856856</v>
+      </c>
+      <c r="G14" t="n">
         <v>0.3806379169947445</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>49.65995597731859</v>
+      </c>
+      <c r="I14" t="n">
         <v>0.612742973274647</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
+        <v>47.79860969839056</v>
+      </c>
+      <c r="K14" t="n">
         <v>0.866460687186052</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
+        <v>43.21476954805749</v>
+      </c>
+      <c r="M14" t="n">
         <v>0.555716323014949</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
+        <v>42.5097217726075</v>
+      </c>
+      <c r="O14" t="n">
         <v>0.2783876575383718</v>
       </c>
-      <c r="J14" t="n">
+      <c r="P14" t="n">
+        <v>42.06573845705265</v>
+      </c>
+      <c r="Q14" t="n">
         <v>0.7281874592844462</v>
       </c>
-      <c r="K14" t="n">
+      <c r="R14" t="n">
+        <v>40.6094145934338</v>
+      </c>
+      <c r="S14" t="n">
         <v>2.448955575859826</v>
       </c>
-      <c r="L14" t="n">
+      <c r="T14" t="n">
+        <v>40.08297061849975</v>
+      </c>
+      <c r="U14" t="n">
         <v>2.150612908946412</v>
       </c>
-      <c r="M14" t="n">
+      <c r="V14" t="n">
+        <v>40.7006102899576</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.657039605274331</v>
       </c>
-      <c r="N14" t="n">
+      <c r="X14" t="n">
+        <v>40.02716837737604</v>
+      </c>
+      <c r="Y14" t="n">
         <v>1.768238296526958</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Z14" t="n">
+        <v>39.68510952970117</v>
+      </c>
+      <c r="AA14" t="n">
         <v>0.9634561295167045</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AB14" t="n">
+        <v>40.07184354999504</v>
+      </c>
+      <c r="AC14" t="n">
         <v>4.622970598926502</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AD14" t="n">
+        <v>37.68964071746262</v>
+      </c>
+      <c r="AE14" t="n">
         <v>6.639732191064227</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AF14" t="n">
+        <v>34.89144250568896</v>
+      </c>
+      <c r="AG14" t="n">
         <v>9.193853551267654</v>
       </c>
-      <c r="S14" t="n">
+      <c r="AH14" t="n">
         <v>11.64046355574334</v>
       </c>
-      <c r="T14" t="n">
+      <c r="AI14" t="n">
         <v>6.265708891279636</v>
       </c>
-      <c r="U14" t="n">
+      <c r="AJ14" t="n">
         <v>12.34360743143941</v>
       </c>
-      <c r="V14" t="n">
+      <c r="AK14" t="n">
         <v>0.4521936739414006</v>
       </c>
-      <c r="W14" t="n">
+      <c r="AL14" t="n">
         <v>0.5975196881346243</v>
       </c>
-      <c r="X14" t="n">
+      <c r="AM14" t="n">
         <v>0.5046305593645432</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="AN14" t="n">
         <v>0.7193822233309712</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AO14" t="n">
         <v>0.6983609370198347</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AP14" t="n">
         <v>0.3888307157547692</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AQ14" t="n">
         <v>0.865024451930423</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AR14" t="n">
         <v>0.2276742776505138</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AS14" t="n">
         <v>0.8266146144026892</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AT14" t="n">
         <v>0.288232077631804</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AU14" t="n">
         <v>2.596171425518055</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AV14" t="n">
         <v>3.378913663242025</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AW14" t="n">
         <v>1.515209942490648</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AX14" t="n">
         <v>1.058232163139664</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AY14" t="n">
         <v>2.194027875311425</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AZ14" t="n">
         <v>1.404069936770548</v>
       </c>
     </row>
@@ -2100,105 +2760,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D15" t="n">
+        <v>31.57690885848853</v>
+      </c>
+      <c r="E15" t="n">
         <v>1.064943296114448</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
+        <v>41.18992054194808</v>
+      </c>
+      <c r="G15" t="n">
         <v>0.6521725744291392</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>46.8714356287978</v>
+      </c>
+      <c r="I15" t="n">
         <v>0.6441316919195662</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>44.87517785262858</v>
+      </c>
+      <c r="K15" t="n">
         <v>0.7767134280875807</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>42.04749243385693</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.9302449916639264</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
+        <v>41.97521086122705</v>
+      </c>
+      <c r="O15" t="n">
         <v>0.1897600384369415</v>
       </c>
-      <c r="J15" t="n">
+      <c r="P15" t="n">
+        <v>41.57112501560864</v>
+      </c>
+      <c r="Q15" t="n">
         <v>0.7146063948144559</v>
       </c>
-      <c r="K15" t="n">
+      <c r="R15" t="n">
+        <v>39.85833907654583</v>
+      </c>
+      <c r="S15" t="n">
         <v>2.287298931389381</v>
       </c>
-      <c r="L15" t="n">
+      <c r="T15" t="n">
+        <v>39.55828748478501</v>
+      </c>
+      <c r="U15" t="n">
         <v>2.16229414558893</v>
       </c>
-      <c r="M15" t="n">
+      <c r="V15" t="n">
+        <v>40.4643571195526</v>
+      </c>
+      <c r="W15" t="n">
         <v>1.476432363948455</v>
       </c>
-      <c r="N15" t="n">
+      <c r="X15" t="n">
+        <v>40.00206352172125</v>
+      </c>
+      <c r="Y15" t="n">
         <v>2.000382919852321</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Z15" t="n">
+        <v>39.78762898005347</v>
+      </c>
+      <c r="AA15" t="n">
         <v>1.097239644922918</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AB15" t="n">
+        <v>39.79792215504369</v>
+      </c>
+      <c r="AC15" t="n">
         <v>4.593303857743485</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AD15" t="n">
+        <v>37.23762889525445</v>
+      </c>
+      <c r="AE15" t="n">
         <v>7.070051394622037</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AF15" t="n">
+        <v>34.19658200514348</v>
+      </c>
+      <c r="AG15" t="n">
         <v>9.819222320334527</v>
       </c>
-      <c r="S15" t="n">
+      <c r="AH15" t="n">
         <v>11.52547549046074</v>
       </c>
-      <c r="T15" t="n">
+      <c r="AI15" t="n">
         <v>6.561991657853051</v>
       </c>
-      <c r="U15" t="n">
+      <c r="AJ15" t="n">
         <v>11.73386368633992</v>
       </c>
-      <c r="V15" t="n">
+      <c r="AK15" t="n">
         <v>0.1760324655211707</v>
       </c>
-      <c r="W15" t="n">
+      <c r="AL15" t="n">
         <v>0.1797615654707833</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AM15" t="n">
         <v>0.09475645190697417</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="AN15" t="n">
         <v>0.2712864555211903</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AO15" t="n">
         <v>0.5218977982075688</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AP15" t="n">
         <v>0.1372472233776566</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AQ15" t="n">
         <v>0.6878320613492167</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AR15" t="n">
         <v>0.1028638592589177</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AS15" t="n">
         <v>0.8667217623607147</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AT15" t="n">
         <v>0.1378735774627431</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AU15" t="n">
         <v>2.521423527960833</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AV15" t="n">
         <v>2.466128979376238</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AW15" t="n">
         <v>1.494349797383718</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AX15" t="n">
         <v>1.208247867911384</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AY15" t="n">
         <v>1.347209682709943</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AZ15" t="n">
         <v>0.2670575219858033</v>
       </c>
     </row>
@@ -2213,105 +2918,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D16" t="n">
+        <v>11.28183681771029</v>
+      </c>
+      <c r="E16" t="n">
         <v>6.665394728794444</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
+        <v>40.72044830205402</v>
+      </c>
+      <c r="G16" t="n">
         <v>0.9401161022301654</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
+        <v>43.8623036240558</v>
+      </c>
+      <c r="I16" t="n">
         <v>1.829186100198193</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
+        <v>42.96431446497994</v>
+      </c>
+      <c r="K16" t="n">
         <v>0.9249670997599083</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>41.72860348405011</v>
+      </c>
+      <c r="M16" t="n">
         <v>1.122841693555148</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>41.39475150272903</v>
+      </c>
+      <c r="O16" t="n">
         <v>0.46043029721438</v>
       </c>
-      <c r="J16" t="n">
+      <c r="P16" t="n">
+        <v>41.37760444028811</v>
+      </c>
+      <c r="Q16" t="n">
         <v>0.565924077410744</v>
       </c>
-      <c r="K16" t="n">
+      <c r="R16" t="n">
+        <v>39.23291170795318</v>
+      </c>
+      <c r="S16" t="n">
         <v>2.486947428189386</v>
       </c>
-      <c r="L16" t="n">
+      <c r="T16" t="n">
+        <v>39.11803515514564</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.48299580348772</v>
       </c>
-      <c r="M16" t="n">
+      <c r="V16" t="n">
+        <v>40.19943278161777</v>
+      </c>
+      <c r="W16" t="n">
         <v>1.272738456569643</v>
       </c>
-      <c r="N16" t="n">
+      <c r="X16" t="n">
+        <v>40.06927060956604</v>
+      </c>
+      <c r="Y16" t="n">
         <v>2.442538000697025</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Z16" t="n">
+        <v>39.80533160045328</v>
+      </c>
+      <c r="AA16" t="n">
         <v>1.312425547767342</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AB16" t="n">
+        <v>39.49556334743788</v>
+      </c>
+      <c r="AC16" t="n">
         <v>4.772609455933997</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AD16" t="n">
+        <v>36.74034763159225</v>
+      </c>
+      <c r="AE16" t="n">
         <v>7.699037774916651</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AF16" t="n">
+        <v>33.73622781092526</v>
+      </c>
+      <c r="AG16" t="n">
         <v>10.47569430646083</v>
       </c>
-      <c r="S16" t="n">
+      <c r="AH16" t="n">
         <v>8.39491219094754</v>
       </c>
-      <c r="T16" t="n">
+      <c r="AI16" t="n">
         <v>5.248837224371822</v>
       </c>
-      <c r="U16" t="n">
+      <c r="AJ16" t="n">
         <v>12.92010525872799</v>
       </c>
-      <c r="V16" t="n">
+      <c r="AK16" t="n">
         <v>0.09402709560346129</v>
       </c>
-      <c r="W16" t="n">
+      <c r="AL16" t="n">
         <v>0.07779780388529345</v>
       </c>
-      <c r="X16" t="n">
+      <c r="AM16" t="n">
         <v>0.1052595730516641</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="AN16" t="n">
         <v>0.1341149842393719</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AO16" t="n">
         <v>0.4896588549928956</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AP16" t="n">
         <v>0.1273466358260618</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AQ16" t="n">
         <v>0.6537835920383595</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AR16" t="n">
         <v>0.09819719949952176</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AS16" t="n">
         <v>0.5801556587051282</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AT16" t="n">
         <v>0.192665715020605</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AU16" t="n">
         <v>2.898571752365597</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AV16" t="n">
         <v>1.152747753285754</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AW16" t="n">
         <v>1.853568045937013</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AX16" t="n">
         <v>0.8102697260511597</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AY16" t="n">
         <v>2.355895476802276</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AZ16" t="n">
         <v>0.7805658521094941</v>
       </c>
     </row>
@@ -2326,105 +3076,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D17" t="n">
+        <v>33.09317195653902</v>
+      </c>
+      <c r="E17" t="n">
         <v>3.379214712226088</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
+        <v>40.28323001072011</v>
+      </c>
+      <c r="G17" t="n">
         <v>1.115360901594938</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>42.89307777204561</v>
+      </c>
+      <c r="I17" t="n">
         <v>1.436899599369132</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>42.66549300567473</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.764899752478989</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
+        <v>41.58022318986212</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.9174324311073442</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
+        <v>41.03637656605696</v>
+      </c>
+      <c r="O17" t="n">
         <v>0.7093436464955359</v>
       </c>
-      <c r="J17" t="n">
+      <c r="P17" t="n">
+        <v>40.74131904048534</v>
+      </c>
+      <c r="Q17" t="n">
         <v>0.6702323061733736</v>
       </c>
-      <c r="K17" t="n">
+      <c r="R17" t="n">
+        <v>39.11343405252126</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.461841990501359</v>
       </c>
-      <c r="L17" t="n">
+      <c r="T17" t="n">
+        <v>38.79073712725983</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.372921940062197</v>
       </c>
-      <c r="M17" t="n">
+      <c r="V17" t="n">
+        <v>39.96774249765854</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.128729017941653</v>
       </c>
-      <c r="N17" t="n">
+      <c r="X17" t="n">
+        <v>39.89539203845434</v>
+      </c>
+      <c r="Y17" t="n">
         <v>2.748003261444295</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Z17" t="n">
+        <v>39.77105969833484</v>
+      </c>
+      <c r="AA17" t="n">
         <v>1.393584550878071</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AB17" t="n">
+        <v>39.26552382602281</v>
+      </c>
+      <c r="AC17" t="n">
         <v>4.598449678246519</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AD17" t="n">
+        <v>36.64797018451408</v>
+      </c>
+      <c r="AE17" t="n">
         <v>7.414452449846462</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AF17" t="n">
+        <v>33.89924678225044</v>
+      </c>
+      <c r="AG17" t="n">
         <v>10.28485537664154</v>
       </c>
-      <c r="S17" t="n">
+      <c r="AH17" t="n">
         <v>6.637937219408471</v>
       </c>
-      <c r="T17" t="n">
+      <c r="AI17" t="n">
         <v>3.613049425569139</v>
       </c>
-      <c r="U17" t="n">
+      <c r="AJ17" t="n">
         <v>14.07038013259847</v>
       </c>
-      <c r="V17" t="n">
+      <c r="AK17" t="n">
         <v>0.06502485782746534</v>
       </c>
-      <c r="W17" t="n">
+      <c r="AL17" t="n">
         <v>0.07087379860732314</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AM17" t="n">
         <v>0.2763422455231563</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="AN17" t="n">
         <v>0.1314343630419464</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AO17" t="n">
         <v>0.4064212272305024</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AP17" t="n">
         <v>0.1506031724996969</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AQ17" t="n">
         <v>0.6305982685653556</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AR17" t="n">
         <v>0.1196071921899882</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AS17" t="n">
         <v>0.5990821291905031</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AT17" t="n">
         <v>0.137418364747977</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AU17" t="n">
         <v>2.91335222402622</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AV17" t="n">
         <v>0.358954836716566</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AW17" t="n">
         <v>1.585130043900928</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AX17" t="n">
         <v>0.8358942034725529</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AY17" t="n">
         <v>2.261547310057202</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AZ17" t="n">
         <v>0.6519545193713655</v>
       </c>
     </row>
@@ -2439,105 +3234,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D18" t="n">
+        <v>60.12356223949349</v>
+      </c>
+      <c r="E18" t="n">
         <v>4.575008831432773</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
+        <v>39.94879002721457</v>
+      </c>
+      <c r="G18" t="n">
         <v>1.150238087738529</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>41.54048144299797</v>
+      </c>
+      <c r="I18" t="n">
         <v>0.6189904288834081</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>41.56459860917903</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3549812220450831</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
+        <v>41.41609035188227</v>
+      </c>
+      <c r="M18" t="n">
         <v>0.8544568580441922</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>40.70491197379148</v>
+      </c>
+      <c r="O18" t="n">
         <v>0.8171700595474026</v>
       </c>
-      <c r="J18" t="n">
+      <c r="P18" t="n">
+        <v>40.80403548586811</v>
+      </c>
+      <c r="Q18" t="n">
         <v>0.7853367063765553</v>
       </c>
-      <c r="K18" t="n">
+      <c r="R18" t="n">
+        <v>39.00208305249992</v>
+      </c>
+      <c r="S18" t="n">
         <v>2.586387177914255</v>
       </c>
-      <c r="L18" t="n">
+      <c r="T18" t="n">
+        <v>38.83935301376228</v>
+      </c>
+      <c r="U18" t="n">
         <v>2.545058590222181</v>
       </c>
-      <c r="M18" t="n">
+      <c r="V18" t="n">
+        <v>40.04773298358401</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.183198716461156</v>
       </c>
-      <c r="N18" t="n">
+      <c r="X18" t="n">
+        <v>39.93761515802525</v>
+      </c>
+      <c r="Y18" t="n">
         <v>3.115605215635393</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Z18" t="n">
+        <v>39.6731922208989</v>
+      </c>
+      <c r="AA18" t="n">
         <v>1.586488686813751</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AB18" t="n">
+        <v>39.24986310155349</v>
+      </c>
+      <c r="AC18" t="n">
         <v>4.608525345012261</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AD18" t="n">
+        <v>36.76249859700737</v>
+      </c>
+      <c r="AE18" t="n">
         <v>6.841704359843368</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AF18" t="n">
+        <v>34.30651805714675</v>
+      </c>
+      <c r="AG18" t="n">
         <v>9.667452806511768</v>
       </c>
-      <c r="S18" t="n">
+      <c r="AH18" t="n">
         <v>3.863077384012878</v>
       </c>
-      <c r="T18" t="n">
+      <c r="AI18" t="n">
         <v>2.76111359036612</v>
       </c>
-      <c r="U18" t="n">
+      <c r="AJ18" t="n">
         <v>11.94124791864631</v>
       </c>
-      <c r="V18" t="n">
+      <c r="AK18" t="n">
         <v>0.1182766428209329</v>
       </c>
-      <c r="W18" t="n">
+      <c r="AL18" t="n">
         <v>0.007405764784672588</v>
       </c>
-      <c r="X18" t="n">
+      <c r="AM18" t="n">
         <v>0.2796106146754935</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="AN18" t="n">
         <v>0.2685725883860818</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AO18" t="n">
         <v>0.3714673842096247</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AP18" t="n">
         <v>0.1580934266101002</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AQ18" t="n">
         <v>0.4754196697896851</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AR18" t="n">
         <v>0.139538837758802</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AS18" t="n">
         <v>0.6208534446669298</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AT18" t="n">
         <v>0.1132415793984724</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AU18" t="n">
         <v>3.163692185747918</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AV18" t="n">
         <v>1.355748452911332</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AW18" t="n">
         <v>1.655953823718173</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AX18" t="n">
         <v>0.9944827843306117</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AY18" t="n">
         <v>0.8225420507471687</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AZ18" t="n">
         <v>0.7525897624408082</v>
       </c>
     </row>
@@ -2552,105 +3392,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D19" t="n">
+        <v>61.15281338020169</v>
+      </c>
+      <c r="E19" t="n">
         <v>5.712841428425572</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
+        <v>39.36104242205542</v>
+      </c>
+      <c r="G19" t="n">
         <v>1.043463809316094</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>39.42609811757288</v>
+      </c>
+      <c r="I19" t="n">
         <v>0.433350798713849</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
+        <v>40.02046092059876</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.3762467937722686</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
+        <v>40.55524603602453</v>
+      </c>
+      <c r="M19" t="n">
         <v>1.216552384640188</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
+        <v>40.32315365696577</v>
+      </c>
+      <c r="O19" t="n">
         <v>0.9397521321840945</v>
       </c>
-      <c r="J19" t="n">
+      <c r="P19" t="n">
+        <v>40.33383414676514</v>
+      </c>
+      <c r="Q19" t="n">
         <v>0.901137459391903</v>
       </c>
-      <c r="K19" t="n">
+      <c r="R19" t="n">
+        <v>38.91704405199963</v>
+      </c>
+      <c r="S19" t="n">
         <v>2.786344959478298</v>
       </c>
-      <c r="L19" t="n">
+      <c r="T19" t="n">
+        <v>38.6074995342133</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.829497750689316</v>
       </c>
-      <c r="M19" t="n">
+      <c r="V19" t="n">
+        <v>39.5651440399705</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.501856708823782</v>
       </c>
-      <c r="N19" t="n">
+      <c r="X19" t="n">
+        <v>39.73315359683804</v>
+      </c>
+      <c r="Y19" t="n">
         <v>3.29275962399305</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Z19" t="n">
+        <v>39.5503729144013</v>
+      </c>
+      <c r="AA19" t="n">
         <v>1.82585461772488</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AB19" t="n">
+        <v>39.35433520650556</v>
+      </c>
+      <c r="AC19" t="n">
         <v>4.606530157470204</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AD19" t="n">
+        <v>37.14230885250392</v>
+      </c>
+      <c r="AE19" t="n">
         <v>6.252410564354752</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AF19" t="n">
+        <v>35.12778183894395</v>
+      </c>
+      <c r="AG19" t="n">
         <v>8.787550670769802</v>
       </c>
-      <c r="S19" t="n">
+      <c r="AH19" t="n">
         <v>2.674640495544036</v>
       </c>
-      <c r="T19" t="n">
+      <c r="AI19" t="n">
         <v>2.509645742148081</v>
       </c>
-      <c r="U19" t="n">
+      <c r="AJ19" t="n">
         <v>12.35747571821086</v>
       </c>
-      <c r="V19" t="n">
+      <c r="AK19" t="n">
         <v>0.06218506085613447</v>
       </c>
-      <c r="W19" t="n">
+      <c r="AL19" t="n">
         <v>0.07248955266821973</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AM19" t="n">
         <v>0.5959653407730814</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="AN19" t="n">
         <v>0.2349944116502942</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AO19" t="n">
         <v>0.4353472855382067</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AP19" t="n">
         <v>0.1891577705679429</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AQ19" t="n">
         <v>0.6586613067292519</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AR19" t="n">
         <v>0.1305172933989547</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AS19" t="n">
         <v>0.4131351814098793</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AT19" t="n">
         <v>0.1725631495705234</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AU19" t="n">
         <v>3.532169439294616</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AV19" t="n">
         <v>1.619200203636839</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AW19" t="n">
         <v>1.572303805137207</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AX19" t="n">
         <v>1.606320984446157</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AY19" t="n">
         <v>2.304249068028179</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AZ19" t="n">
         <v>0.4808568080066145</v>
       </c>
     </row>
@@ -2665,105 +3550,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D20" t="n">
+        <v>60.66534202593164</v>
+      </c>
+      <c r="E20" t="n">
         <v>5.780900897150318</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
+        <v>38.78993574889478</v>
+      </c>
+      <c r="G20" t="n">
         <v>1.127694909127318</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>37.75972829329215</v>
+      </c>
+      <c r="I20" t="n">
         <v>2.953379656215172</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>38.6774538293644</v>
+      </c>
+      <c r="K20" t="n">
         <v>0.4859310378558294</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>40.11232138778993</v>
+      </c>
+      <c r="M20" t="n">
         <v>1.737092389453563</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
+        <v>39.85559220120141</v>
+      </c>
+      <c r="O20" t="n">
         <v>1.155915686622618</v>
       </c>
-      <c r="J20" t="n">
+      <c r="P20" t="n">
+        <v>40.0913108191848</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.019559485535886</v>
       </c>
-      <c r="K20" t="n">
+      <c r="R20" t="n">
+        <v>39.07914009204439</v>
+      </c>
+      <c r="S20" t="n">
         <v>2.769445222239836</v>
       </c>
-      <c r="L20" t="n">
+      <c r="T20" t="n">
+        <v>38.58309443823926</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.756360555564002</v>
       </c>
-      <c r="M20" t="n">
+      <c r="V20" t="n">
+        <v>39.67333778329452</v>
+      </c>
+      <c r="W20" t="n">
         <v>1.686145536083683</v>
       </c>
-      <c r="N20" t="n">
+      <c r="X20" t="n">
+        <v>39.47536959457613</v>
+      </c>
+      <c r="Y20" t="n">
         <v>2.933684035659303</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Z20" t="n">
+        <v>39.48170626336186</v>
+      </c>
+      <c r="AA20" t="n">
         <v>1.716623852737934</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AB20" t="n">
+        <v>39.49992049033075</v>
+      </c>
+      <c r="AC20" t="n">
         <v>4.488270543881771</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AD20" t="n">
+        <v>38.10109205742347</v>
+      </c>
+      <c r="AE20" t="n">
         <v>5.974557953864212</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AF20" t="n">
+        <v>37.03316564439037</v>
+      </c>
+      <c r="AG20" t="n">
         <v>8.272289251422391</v>
       </c>
-      <c r="S20" t="n">
+      <c r="AH20" t="n">
         <v>3.414956495459654</v>
       </c>
-      <c r="T20" t="n">
+      <c r="AI20" t="n">
         <v>5.621001204126398</v>
       </c>
-      <c r="U20" t="n">
+      <c r="AJ20" t="n">
         <v>12.30948693565431</v>
       </c>
-      <c r="V20" t="n">
+      <c r="AK20" t="n">
         <v>0.08675770294994652</v>
       </c>
-      <c r="W20" t="n">
+      <c r="AL20" t="n">
         <v>0.09182779292083063</v>
       </c>
-      <c r="X20" t="n">
+      <c r="AM20" t="n">
         <v>0.6158472460526828</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AN20" t="n">
         <v>0.08458856842490139</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AO20" t="n">
         <v>0.419777754639626</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AP20" t="n">
         <v>0.07641661120633202</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AQ20" t="n">
         <v>0.5918671416527785</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AR20" t="n">
         <v>0.1029385709792815</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AS20" t="n">
         <v>0.8076657944219557</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AT20" t="n">
         <v>0.2055190550977552</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AU20" t="n">
         <v>2.800024852820358</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AV20" t="n">
         <v>1.280712925300427</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AW20" t="n">
         <v>0.3160708955366395</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AX20" t="n">
         <v>1.366127088269659</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AY20" t="n">
         <v>0.5678970481761225</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AZ20" t="n">
         <v>0.934029016047094</v>
       </c>
     </row>
@@ -2778,105 +3708,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D21" t="n">
+        <v>59.581465632263</v>
+      </c>
+      <c r="E21" t="n">
         <v>4.65497453062652</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
+        <v>39.48983393475134</v>
+      </c>
+      <c r="G21" t="n">
         <v>1.992642438267212</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>38.01384832125749</v>
+      </c>
+      <c r="I21" t="n">
         <v>0.8266429801706737</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
+        <v>37.1774891696652</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.4363132630449548</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
+        <v>39.74450644603971</v>
+      </c>
+      <c r="M21" t="n">
         <v>2.063496977910007</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
+        <v>39.41632751938838</v>
+      </c>
+      <c r="O21" t="n">
         <v>1.140841796322013</v>
       </c>
-      <c r="J21" t="n">
+      <c r="P21" t="n">
+        <v>39.52380691392236</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.150312380473492</v>
       </c>
-      <c r="K21" t="n">
+      <c r="R21" t="n">
+        <v>38.86284198586581</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.713497926385109</v>
       </c>
-      <c r="L21" t="n">
+      <c r="T21" t="n">
+        <v>38.63392380959525</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.515703257405236</v>
       </c>
-      <c r="M21" t="n">
+      <c r="V21" t="n">
+        <v>39.58554236030642</v>
+      </c>
+      <c r="W21" t="n">
         <v>1.686282744543039</v>
       </c>
-      <c r="N21" t="n">
+      <c r="X21" t="n">
+        <v>39.31715298513009</v>
+      </c>
+      <c r="Y21" t="n">
         <v>2.796250938362818</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Z21" t="n">
+        <v>39.60629864171131</v>
+      </c>
+      <c r="AA21" t="n">
         <v>1.580854461672573</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AB21" t="n">
+        <v>39.5820312049371</v>
+      </c>
+      <c r="AC21" t="n">
         <v>3.969948846913816</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AD21" t="n">
+        <v>38.93381145717326</v>
+      </c>
+      <c r="AE21" t="n">
         <v>5.912006617535197</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AF21" t="n">
+        <v>38.99194958368671</v>
+      </c>
+      <c r="AG21" t="n">
         <v>8.062480397060822</v>
       </c>
-      <c r="S21" t="n">
+      <c r="AH21" t="n">
         <v>4.145293682644866</v>
       </c>
-      <c r="T21" t="n">
+      <c r="AI21" t="n">
         <v>4.355889005295492</v>
       </c>
-      <c r="U21" t="n">
+      <c r="AJ21" t="n">
         <v>10.54526124702933</v>
       </c>
-      <c r="V21" t="n">
+      <c r="AK21" t="n">
         <v>0.1077481228241432</v>
       </c>
-      <c r="W21" t="n">
+      <c r="AL21" t="n">
         <v>0.06344119279282311</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AM21" t="n">
         <v>0.5211395856370501</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="AN21" t="n">
         <v>0.1876842142715199</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AO21" t="n">
         <v>0.3516766060255862</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AP21" t="n">
         <v>0.1105214175623455</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AQ21" t="n">
         <v>0.6610038643099586</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AR21" t="n">
         <v>0.1427445387464648</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AS21" t="n">
         <v>0.619581235563982</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AT21" t="n">
         <v>0.09434085405375203</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AU21" t="n">
         <v>1.886912066410938</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AV21" t="n">
         <v>0.5760653773411253</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AW21" t="n">
         <v>1.413443047989629</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AX21" t="n">
         <v>0.8563287588343023</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AY21" t="n">
         <v>2.725137524802852</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AZ21" t="n">
         <v>1.104054710129351</v>
       </c>
     </row>
@@ -2891,105 +3866,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D22" t="n">
+        <v>42.95132949982089</v>
+      </c>
+      <c r="E22" t="n">
         <v>6.654982826046338</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
+        <v>38.13656945984278</v>
+      </c>
+      <c r="G22" t="n">
         <v>2.159465885027211</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>37.490013802432</v>
+      </c>
+      <c r="I22" t="n">
         <v>0.7251452377743677</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
+        <v>36.37359359897444</v>
+      </c>
+      <c r="K22" t="n">
         <v>0.5044586441486735</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
+        <v>38.89757055271302</v>
+      </c>
+      <c r="M22" t="n">
         <v>1.908832270964499</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
+        <v>38.88059098282243</v>
+      </c>
+      <c r="O22" t="n">
         <v>1.020233631449175</v>
       </c>
-      <c r="J22" t="n">
+      <c r="P22" t="n">
+        <v>39.59871275075393</v>
+      </c>
+      <c r="Q22" t="n">
         <v>1.006371039255471</v>
       </c>
-      <c r="K22" t="n">
+      <c r="R22" t="n">
+        <v>38.7625448932756</v>
+      </c>
+      <c r="S22" t="n">
         <v>2.458488759207016</v>
       </c>
-      <c r="L22" t="n">
+      <c r="T22" t="n">
+        <v>38.40730356658634</v>
+      </c>
+      <c r="U22" t="n">
         <v>2.147177704467497</v>
       </c>
-      <c r="M22" t="n">
+      <c r="V22" t="n">
+        <v>39.52615864575228</v>
+      </c>
+      <c r="W22" t="n">
         <v>1.721514181711806</v>
       </c>
-      <c r="N22" t="n">
+      <c r="X22" t="n">
+        <v>39.15116463843696</v>
+      </c>
+      <c r="Y22" t="n">
         <v>2.807151432609677</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Z22" t="n">
+        <v>39.54503181875138</v>
+      </c>
+      <c r="AA22" t="n">
         <v>1.552102720042788</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
+        <v>39.30457278225726</v>
+      </c>
+      <c r="AC22" t="n">
         <v>3.455161785663401</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AD22" t="n">
+        <v>39.40472831043594</v>
+      </c>
+      <c r="AE22" t="n">
         <v>5.300010341187612</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AF22" t="n">
+        <v>40.19488570175508</v>
+      </c>
+      <c r="AG22" t="n">
         <v>7.332157064015683</v>
       </c>
-      <c r="S22" t="n">
+      <c r="AH22" t="n">
         <v>6.999320063254246</v>
       </c>
-      <c r="T22" t="n">
+      <c r="AI22" t="n">
         <v>4.429976001816632</v>
       </c>
-      <c r="U22" t="n">
+      <c r="AJ22" t="n">
         <v>10.37228517271713</v>
       </c>
-      <c r="V22" t="n">
+      <c r="AK22" t="n">
         <v>0.1068192190420469</v>
       </c>
-      <c r="W22" t="n">
+      <c r="AL22" t="n">
         <v>0.07825902483244492</v>
       </c>
-      <c r="X22" t="n">
+      <c r="AM22" t="n">
         <v>0.4935991213828171</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AN22" t="n">
         <v>0.1507309094428174</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AO22" t="n">
         <v>0.5137063375449152</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AP22" t="n">
         <v>0.1581870821268148</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AQ22" t="n">
         <v>0.6596735483898166</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AR22" t="n">
         <v>0.03087909005607525</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AS22" t="n">
         <v>0.8192542971992818</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AT22" t="n">
         <v>0.09526921794847425</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AU22" t="n">
         <v>2.030890473685961</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AV22" t="n">
         <v>0.9658144758624293</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AW22" t="n">
         <v>1.647038069879151</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AX22" t="n">
         <v>0.8360181126149084</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AY22" t="n">
         <v>1.554159660642069</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AZ22" t="n">
         <v>0.9935311489743763</v>
       </c>
     </row>
@@ -3004,105 +4024,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D23" t="n">
+        <v>59.17396290603954</v>
+      </c>
+      <c r="E23" t="n">
         <v>5.20557963326597</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
+        <v>37.06865963097532</v>
+      </c>
+      <c r="G23" t="n">
         <v>2.71335012130422</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>37.15364108841825</v>
+      </c>
+      <c r="I23" t="n">
         <v>0.8757055078131193</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>35.96548782291792</v>
+      </c>
+      <c r="K23" t="n">
         <v>0.7726319766556194</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
+        <v>38.26063160824016</v>
+      </c>
+      <c r="M23" t="n">
         <v>2.144805961577443</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
+        <v>38.56605944658669</v>
+      </c>
+      <c r="O23" t="n">
         <v>1.267357163511412</v>
       </c>
-      <c r="J23" t="n">
+      <c r="P23" t="n">
+        <v>38.48869806575798</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.410608206734573</v>
       </c>
-      <c r="K23" t="n">
+      <c r="R23" t="n">
+        <v>38.54395555628777</v>
+      </c>
+      <c r="S23" t="n">
         <v>2.776110804172745</v>
       </c>
-      <c r="L23" t="n">
+      <c r="T23" t="n">
+        <v>38.24880814810669</v>
+      </c>
+      <c r="U23" t="n">
         <v>2.4402790433156</v>
       </c>
-      <c r="M23" t="n">
+      <c r="V23" t="n">
+        <v>39.09156076808168</v>
+      </c>
+      <c r="W23" t="n">
         <v>2.197643518674389</v>
       </c>
-      <c r="N23" t="n">
+      <c r="X23" t="n">
+        <v>39.02441868699537</v>
+      </c>
+      <c r="Y23" t="n">
         <v>2.958520896195395</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Z23" t="n">
+        <v>39.42478777657669</v>
+      </c>
+      <c r="AA23" t="n">
         <v>1.811161255891014</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AB23" t="n">
+        <v>38.9555033536943</v>
+      </c>
+      <c r="AC23" t="n">
         <v>3.439408840047199</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AD23" t="n">
+        <v>39.54926511089479</v>
+      </c>
+      <c r="AE23" t="n">
         <v>4.804104131663469</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AF23" t="n">
+        <v>41.18976585291706</v>
+      </c>
+      <c r="AG23" t="n">
         <v>6.325689980005087</v>
       </c>
-      <c r="S23" t="n">
+      <c r="AH23" t="n">
         <v>7.393143808396736</v>
       </c>
-      <c r="T23" t="n">
+      <c r="AI23" t="n">
         <v>5.207422406853866</v>
       </c>
-      <c r="U23" t="n">
+      <c r="AJ23" t="n">
         <v>9.008799312492179</v>
       </c>
-      <c r="V23" t="n">
+      <c r="AK23" t="n">
         <v>0.1025084986729855</v>
       </c>
-      <c r="W23" t="n">
+      <c r="AL23" t="n">
         <v>0.1542118378625313</v>
       </c>
-      <c r="X23" t="n">
+      <c r="AM23" t="n">
         <v>0.4639922441329073</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AN23" t="n">
         <v>0.195419824768059</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AO23" t="n">
         <v>0.6309085108179056</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AP23" t="n">
         <v>0.1587651542928831</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AQ23" t="n">
         <v>0.704297441021451</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AR23" t="n">
         <v>0.06681882057773454</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AS23" t="n">
         <v>0.6751173833825802</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AT23" t="n">
         <v>0.06207203242873632</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AU23" t="n">
         <v>1.471866100555445</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AV23" t="n">
         <v>1.242607497308047</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AW23" t="n">
         <v>0.5000199956602909</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AX23" t="n">
         <v>1.163506133992178</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AY23" t="n">
         <v>0.85230802873544</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AZ23" t="n">
         <v>0.9433284759711488</v>
       </c>
     </row>
@@ -3117,105 +4182,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D24" t="n">
+        <v>59.63922251324091</v>
+      </c>
+      <c r="E24" t="n">
         <v>8.428968757661298</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
+        <v>62.3045806725368</v>
+      </c>
+      <c r="G24" t="n">
         <v>4.036018116120582</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>36.73233092254289</v>
+      </c>
+      <c r="I24" t="n">
         <v>1.114490554234409</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
+        <v>37.23493831547967</v>
+      </c>
+      <c r="K24" t="n">
         <v>1.183964896867056</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
+        <v>37.9268984240599</v>
+      </c>
+      <c r="M24" t="n">
         <v>2.118381964776747</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
+        <v>39.25945485726923</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.171880701401041</v>
       </c>
-      <c r="J24" t="n">
+      <c r="P24" t="n">
+        <v>39.09322674097834</v>
+      </c>
+      <c r="Q24" t="n">
         <v>1.297596390078249</v>
       </c>
-      <c r="K24" t="n">
+      <c r="R24" t="n">
+        <v>38.30819686932567</v>
+      </c>
+      <c r="S24" t="n">
         <v>2.867893782199979</v>
       </c>
-      <c r="L24" t="n">
+      <c r="T24" t="n">
+        <v>37.97905779004242</v>
+      </c>
+      <c r="U24" t="n">
         <v>2.466869665066544</v>
       </c>
-      <c r="M24" t="n">
+      <c r="V24" t="n">
+        <v>38.59179119148352</v>
+      </c>
+      <c r="W24" t="n">
         <v>2.384234994194668</v>
       </c>
-      <c r="N24" t="n">
+      <c r="X24" t="n">
+        <v>38.61046554949326</v>
+      </c>
+      <c r="Y24" t="n">
         <v>3.244923348267714</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Z24" t="n">
+        <v>39.43116214485953</v>
+      </c>
+      <c r="AA24" t="n">
         <v>1.963758413512142</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AB24" t="n">
+        <v>38.75067628813181</v>
+      </c>
+      <c r="AC24" t="n">
         <v>3.409653800551713</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AD24" t="n">
+        <v>39.95237409161615</v>
+      </c>
+      <c r="AE24" t="n">
         <v>5.690600098421137</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AF24" t="n">
+        <v>42.56996059784162</v>
+      </c>
+      <c r="AG24" t="n">
         <v>8.0578602340365</v>
       </c>
-      <c r="S24" t="n">
+      <c r="AH24" t="n">
         <v>8.343789992337543</v>
       </c>
-      <c r="T24" t="n">
+      <c r="AI24" t="n">
         <v>3.364243462004439</v>
       </c>
-      <c r="U24" t="n">
+      <c r="AJ24" t="n">
         <v>7.463408320647758</v>
       </c>
-      <c r="V24" t="n">
+      <c r="AK24" t="n">
         <v>0.252795335704215</v>
       </c>
-      <c r="W24" t="n">
+      <c r="AL24" t="n">
         <v>0.3548633516021949</v>
       </c>
-      <c r="X24" t="n">
+      <c r="AM24" t="n">
         <v>0.852702899154749</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="AN24" t="n">
         <v>0.2663574256141111</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AO24" t="n">
         <v>0.7578574762038256</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AP24" t="n">
         <v>0.18251791828831</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AQ24" t="n">
         <v>0.6785838343691474</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AR24" t="n">
         <v>0.2076309399098802</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AS24" t="n">
         <v>0.825733117467444</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AT24" t="n">
         <v>0.1949280163104484</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AU24" t="n">
         <v>3.476851993164163</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AV24" t="n">
         <v>1.453239996021253</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AW24" t="n">
         <v>1.260752281168828</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AX24" t="n">
         <v>1.388281716605724</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AY24" t="n">
         <v>1.917611430344655</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AZ24" t="n">
         <v>2.639550819273728</v>
       </c>
     </row>
@@ -3230,105 +4340,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D25" t="n">
+        <v>43.82960155040628</v>
+      </c>
+      <c r="E25" t="n">
         <v>5.873132285108817</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
+        <v>39.30578125955176</v>
+      </c>
+      <c r="G25" t="n">
         <v>2.417748414663842</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>39.29126232831192</v>
+      </c>
+      <c r="I25" t="n">
         <v>3.8259643470462</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
+        <v>39.04017396294078</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.676765312470339</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
+        <v>38.42487424502068</v>
+      </c>
+      <c r="M25" t="n">
         <v>1.608805707214613</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
+        <v>38.66484826523132</v>
+      </c>
+      <c r="O25" t="n">
         <v>0.8770827552036636</v>
       </c>
-      <c r="J25" t="n">
+      <c r="P25" t="n">
+        <v>41.37758156471954</v>
+      </c>
+      <c r="Q25" t="n">
         <v>1.398008356206045</v>
       </c>
-      <c r="K25" t="n">
+      <c r="R25" t="n">
+        <v>38.28840724283064</v>
+      </c>
+      <c r="S25" t="n">
         <v>2.602063582105091</v>
       </c>
-      <c r="L25" t="n">
+      <c r="T25" t="n">
+        <v>38.0718813828433</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.220716721535324</v>
       </c>
-      <c r="M25" t="n">
+      <c r="V25" t="n">
+        <v>38.48131904780282</v>
+      </c>
+      <c r="W25" t="n">
         <v>2.462502982546682</v>
       </c>
-      <c r="N25" t="n">
+      <c r="X25" t="n">
+        <v>38.19117704918126</v>
+      </c>
+      <c r="Y25" t="n">
         <v>3.066140284092936</v>
       </c>
-      <c r="O25" t="n">
+      <c r="Z25" t="n">
+        <v>39.53966159881701</v>
+      </c>
+      <c r="AA25" t="n">
         <v>2.147230468430467</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
+        <v>38.78414738390165</v>
+      </c>
+      <c r="AC25" t="n">
         <v>3.050549146127244</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AD25" t="n">
+        <v>40.8930045801215</v>
+      </c>
+      <c r="AE25" t="n">
         <v>7.061728832076843</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AF25" t="n">
+        <v>44.34556528864879</v>
+      </c>
+      <c r="AG25" t="n">
         <v>10.96437221095473</v>
       </c>
-      <c r="S25" t="n">
+      <c r="AH25" t="n">
         <v>9.334940108364542</v>
       </c>
-      <c r="T25" t="n">
+      <c r="AI25" t="n">
         <v>4.44627266406918</v>
       </c>
-      <c r="U25" t="n">
+      <c r="AJ25" t="n">
         <v>4.888706387701545</v>
       </c>
-      <c r="V25" t="n">
+      <c r="AK25" t="n">
         <v>0.7706841835001317</v>
       </c>
-      <c r="W25" t="n">
+      <c r="AL25" t="n">
         <v>0.4911426993881013</v>
       </c>
-      <c r="X25" t="n">
+      <c r="AM25" t="n">
         <v>0.7382413040144229</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="AN25" t="n">
         <v>0.1915997351387767</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AO25" t="n">
         <v>0.5413472814688702</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AP25" t="n">
         <v>0.1962513204899317</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AQ25" t="n">
         <v>0.534269367437134</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AR25" t="n">
         <v>0.2040184210254735</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AS25" t="n">
         <v>0.4570489867437012</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AT25" t="n">
         <v>0.1711553742824553</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AU25" t="n">
         <v>2.432225279892021</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AV25" t="n">
         <v>2.324798065895128</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AW25" t="n">
         <v>2.548832632618313</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AX25" t="n">
         <v>1.418705665388486</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AY25" t="n">
         <v>4.062550245939428</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AZ25" t="n">
         <v>2.282148723985878</v>
       </c>
     </row>
@@ -3343,105 +4498,150 @@
         <v>1.089724735885168</v>
       </c>
       <c r="D26" t="n">
+        <v>25.98764858843507</v>
+      </c>
+      <c r="E26" t="n">
         <v>6.363317571662559</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
+        <v>19.14155929829496</v>
+      </c>
+      <c r="G26" t="n">
         <v>2.744322457744568</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>35.83457521098016</v>
+      </c>
+      <c r="I26" t="n">
         <v>0.6804116276433827</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
+        <v>36.24257411256313</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.833238731175387</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>39.10061099156237</v>
+      </c>
+      <c r="M26" t="n">
         <v>1.371472876239782</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
+        <v>37.79178076310514</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.26149976871682</v>
       </c>
-      <c r="J26" t="n">
+      <c r="P26" t="n">
+        <v>37.35328738505536</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0.9905683986509898</v>
       </c>
-      <c r="K26" t="n">
+      <c r="R26" t="n">
+        <v>38.47548163795044</v>
+      </c>
+      <c r="S26" t="n">
         <v>1.992617908260987</v>
       </c>
-      <c r="L26" t="n">
+      <c r="T26" t="n">
+        <v>38.17769939502537</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.756146358012897</v>
       </c>
-      <c r="M26" t="n">
+      <c r="V26" t="n">
+        <v>38.6775244167282</v>
+      </c>
+      <c r="W26" t="n">
         <v>2.227858255113737</v>
       </c>
-      <c r="N26" t="n">
+      <c r="X26" t="n">
+        <v>38.7758797982508</v>
+      </c>
+      <c r="Y26" t="n">
         <v>2.709060228610298</v>
       </c>
-      <c r="O26" t="n">
+      <c r="Z26" t="n">
+        <v>39.46440888702609</v>
+      </c>
+      <c r="AA26" t="n">
         <v>2.430029336468813</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AB26" t="n">
+        <v>38.88937957391</v>
+      </c>
+      <c r="AC26" t="n">
         <v>2.640888398815588</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AD26" t="n">
+        <v>41.73405707429826</v>
+      </c>
+      <c r="AE26" t="n">
         <v>6.703077872220778</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AF26" t="n">
+        <v>45.24125269870758</v>
+      </c>
+      <c r="AG26" t="n">
         <v>12.37059553588626</v>
       </c>
-      <c r="S26" t="n">
+      <c r="AH26" t="n">
         <v>3.109562663833807</v>
       </c>
-      <c r="T26" t="n">
+      <c r="AI26" t="n">
         <v>6.154916384003428</v>
       </c>
-      <c r="U26" t="n">
+      <c r="AJ26" t="n">
         <v>5.895826754676357</v>
       </c>
-      <c r="V26" t="n">
+      <c r="AK26" t="n">
         <v>1.100731550099212</v>
       </c>
-      <c r="W26" t="n">
+      <c r="AL26" t="n">
         <v>0.3649715825980953</v>
       </c>
-      <c r="X26" t="n">
+      <c r="AM26" t="n">
         <v>0.3308932811613532</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="AN26" t="n">
         <v>0.1732429251934196</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AO26" t="n">
         <v>0.4897269911290583</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AP26" t="n">
         <v>0.05820246643319175</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AQ26" t="n">
         <v>0.577902359656594</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AR26" t="n">
         <v>0.2772243651587044</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AS26" t="n">
         <v>0.5178372862400497</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AT26" t="n">
         <v>0.2453379581154276</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AU26" t="n">
         <v>3.898350552582363</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AV26" t="n">
         <v>1.678025853241369</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AW26" t="n">
         <v>2.962843571199786</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AX26" t="n">
         <v>1.197354139980385</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AY26" t="n">
         <v>5.800540117517327</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AZ26" t="n">
         <v>2.486430632198934</v>
       </c>
     </row>
